--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256066.466320122</v>
+        <v>287981.62958488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8223248.570101558</v>
+        <v>8254814.228943865</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>383.8103725044325</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.74720752227354</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>31.79230045718264</v>
+        <v>146.8065533016301</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +911,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>113.8545288684623</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>218.5948749257061</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>46.16917954999316</v>
       </c>
       <c r="X7" t="n">
-        <v>223.0416545501323</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>231.4392203388277</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>326.0523421100194</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>99.68042330889679</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>29.22996507216802</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.227720276594</v>
+        <v>236.0942751322863</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170447</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>71.84692347866375</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089149</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>71.43430199953349</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>136.6047512078538</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888207</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>275.2704214118798</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>136.6047512078538</v>
       </c>
     </row>
     <row r="21">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946041</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,7 +2722,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>35.3478058351353</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>75.74046452696625</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>129.7139627068454</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3190,10 +3190,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>104.9141091864658</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225774</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948861</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>35.34780583513564</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>231.3877667512305</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3910,10 +3910,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>43.48898701015924</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225615</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.11288841831368</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1351.042333103999</v>
+        <v>573.0972938764637</v>
       </c>
       <c r="C2" t="n">
-        <v>922.4606588412671</v>
+        <v>134.954821059887</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>103.0854402747356</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>73.35109947343486</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304664</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304664</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304664</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693169</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2151.645126566208</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>2151.645126566208</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1789.028176500035</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.64927858873</v>
+        <v>1384.172721911068</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.547219208445</v>
+        <v>1369.070662530783</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.301499548503</v>
+        <v>960.784538830436</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397417</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064425</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985416</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985416</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>815.7015593356674</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>815.7015593356674</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>649.8235665371901</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>480.0655627879274</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>303.3585087496837</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148765</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.445424286012</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>828.6553060539732</v>
       </c>
       <c r="M4" t="n">
-        <v>452.1535503695694</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>872.2064493144727</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674658</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214704</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512701</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>2028.825591091156</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1750.392590344261</v>
       </c>
       <c r="V4" t="n">
-        <v>972.5535525019498</v>
+        <v>1463.437082214692</v>
       </c>
       <c r="W4" t="n">
-        <v>972.5535525019498</v>
+        <v>1191.410677800983</v>
       </c>
       <c r="X4" t="n">
-        <v>940.4401176967148</v>
+        <v>1043.121230021559</v>
       </c>
       <c r="Y4" t="n">
-        <v>940.4401176967148</v>
+        <v>815.7015593356674</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>958.9147199317615</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1217.07884972191</v>
+        <v>1713.149771940701</v>
       </c>
       <c r="X5" t="n">
-        <v>1201.976790341625</v>
+        <v>1294.007308520012</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.1738863762653</v>
+        <v>1289.761588860069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.6817019292769</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C7" t="n">
-        <v>542.1199904125018</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1131.794921203953</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X7" t="n">
-        <v>906.5003206482641</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y7" t="n">
-        <v>906.5003206482641</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1174.335524143186</v>
+        <v>2003.531199230768</v>
       </c>
       <c r="C8" t="n">
-        <v>1140.233455367013</v>
+        <v>1565.388726414192</v>
       </c>
       <c r="D8" t="n">
-        <v>704.3236705414577</v>
+        <v>1129.478941588636</v>
       </c>
       <c r="E8" t="n">
-        <v>270.5489256997528</v>
+        <v>1099.744600787335</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>671.877171196543</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851274</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851274</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851274</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576078</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1579.374470242654</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1216.75752017648</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1215.942469627917</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>1200.840410247632</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1196.59469058769</v>
+        <v>2025.790365675272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>950.2388210962217</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>777.6771095794467</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>611.7991167809694</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>442.0411130317067</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>265.3340589934629</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943382</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622992</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>816.3199569622992</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651814</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.178951631009</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1817.178951631009</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1538.745950884114</v>
+        <v>2164.252715036267</v>
       </c>
       <c r="V10" t="n">
-        <v>1251.790442754544</v>
+        <v>1877.297206906698</v>
       </c>
       <c r="W10" t="n">
-        <v>979.7640383408359</v>
+        <v>1605.270802492989</v>
       </c>
       <c r="X10" t="n">
-        <v>950.2388210962217</v>
+        <v>1359.879047826402</v>
       </c>
       <c r="Y10" t="n">
-        <v>950.2388210962217</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2034.581622478953</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526435</v>
+        <v>1598.671837653397</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847301</v>
+        <v>1164.897092811692</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939376</v>
+        <v>737.0296632209001</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172015</v>
+        <v>335.6318318441636</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987272</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819521</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834747</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342119</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959682</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177142</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.795942933974</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1356.079523257015</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580466</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412715</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427942</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935315</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243222</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162926</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5525,40 +5525,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580458</v>
+        <v>806.229814098728</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412707</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7923094427936</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
         <v>439.0343056935313</v>
@@ -5662,16 +5662,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119685</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.84397037279</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829512</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177151</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2511.879170851551</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2073.736698034974</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1637.826913209419</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.052168367714</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>776.1847387769218</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
-        <v>374.7869074001857</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H20" t="n">
         <v>96.73597668111519</v>
@@ -5762,16 +5762,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263769</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5783,19 +5783,19 @@
         <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4533.079733112635</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W20" t="n">
-        <v>3765.607328457495</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
-        <v>3346.464865036806</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2938.178741336459</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5890,7 +5890,7 @@
         <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
         <v>439.0343056935313</v>
@@ -5932,16 +5932,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
         <v>1883.888462243221</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731398</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856333</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>927.067776683164</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>754.5060651663889</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679116</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6631,40 +6631,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113117</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338898</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530924</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471569</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050024</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.36663430313</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.41112617356</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759852</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093264</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407372</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,10 +6941,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903955</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736204</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751431</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258804</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876365</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134642</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7099,13 +7099,13 @@
         <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
         <v>2203.220781338905</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7208,16 +7208,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883919</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716169</v>
+        <v>843.1660143917136</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731396</v>
+        <v>677.2880215932363</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238769</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7360,22 +7360,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2325.954064551141</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2047.521063804246</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1760.565555674676</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1488.539151260968</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1243.147396594381</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1015.727725908489</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7436,10 +7436,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7448,7 +7448,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903956</v>
+        <v>970.9960463903944</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736205</v>
+        <v>798.4343348736193</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751432</v>
+        <v>632.5563420751419</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258805</v>
+        <v>462.7983383258791</v>
       </c>
       <c r="F43" t="n">
-        <v>286.0912842876367</v>
+        <v>286.0912842876352</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134626</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7567,25 +7567,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
         <v>2718.920450173579</v>
@@ -7597,22 +7597,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752035</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.60800300514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1907.652494875569</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461862</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795275</v>
+        <v>1390.234335795273</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109383</v>
+        <v>1162.814665109381</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7658,40 +7658,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7807,7 +7807,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803699</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.4781821385493</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>312.4013251831016</v>
+        <v>211.3803861435633</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866484</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,10 +8617,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>87.78575545745673</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8690,16 +8690,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>955.8742281294894</v>
+        <v>661.5502973433599</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>186.1450306293339</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>-3.292261534887825e-13</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.0111327346219</v>
+        <v>50.14457787892962</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>184.7831561774895</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>185.1957776566198</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>267.5985112554893</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.9684315993361</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>267.5985112554893</v>
       </c>
     </row>
     <row r="21">
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>114.159968004831</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>63.14631452530432</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>12.03288520609877</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142731</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.0325855607191</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>700844.8828397664</v>
+        <v>710564.1479914536</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>700844.8828397664</v>
+        <v>713316.3848974338</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>702657.6876216338</v>
+        <v>713316.3848974338</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696378.3825619933</v>
+        <v>696378.3825619932</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696378.3825619931</v>
+        <v>696378.3825619933</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725766.3460702405</v>
+        <v>725766.3460702403</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>725766.3460702405</v>
+        <v>725766.3460702406</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725766.3460702406</v>
+        <v>725766.3460702405</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>725766.3460702405</v>
+        <v>725766.3460702406</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26326,7 @@
         <v>252761.9489858382</v>
       </c>
       <c r="G2" t="n">
-        <v>252761.9489858382</v>
+        <v>252761.9489858383</v>
       </c>
       <c r="H2" t="n">
         <v>252761.9489858382</v>
@@ -26338,7 +26338,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="K2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="L2" t="n">
         <v>263428.7920686761</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039025</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390705</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784541</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>4.802132025361061e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999512</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483863</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="G4" t="n">
         <v>65247.19221856655</v>
       </c>
       <c r="H4" t="n">
-        <v>65247.19221856656</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933271</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814185</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
         <v>73519.34227764753</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133371.2550982437</v>
+        <v>-174756.1149167914</v>
       </c>
       <c r="C6" t="n">
-        <v>8820.045561466228</v>
+        <v>19883.94975686561</v>
       </c>
       <c r="D6" t="n">
-        <v>1966.989376345649</v>
+        <v>37224.49413077264</v>
       </c>
       <c r="E6" t="n">
-        <v>-109803.8792624033</v>
+        <v>-47816.21927528721</v>
       </c>
       <c r="F6" t="n">
-        <v>113995.4144896241</v>
+        <v>113918.8559348272</v>
       </c>
       <c r="G6" t="n">
-        <v>113995.4144896241</v>
+        <v>113918.8559348274</v>
       </c>
       <c r="H6" t="n">
-        <v>113995.4144896241</v>
+        <v>113918.8559348273</v>
       </c>
       <c r="I6" t="n">
-        <v>99345.13954071133</v>
+        <v>99321.91520132872</v>
       </c>
       <c r="J6" t="n">
-        <v>6695.389828560583</v>
+        <v>-42921.19865144483</v>
       </c>
       <c r="K6" t="n">
-        <v>117709.8551735508</v>
+        <v>103872.6222663228</v>
       </c>
       <c r="L6" t="n">
-        <v>108762.244085041</v>
+        <v>117686.6308341681</v>
       </c>
       <c r="M6" t="n">
-        <v>-69081.13143691681</v>
+        <v>-17303.31377883531</v>
       </c>
       <c r="N6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341683</v>
       </c>
       <c r="O6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341682</v>
       </c>
       <c r="P6" t="n">
-        <v>117709.8551735509</v>
+        <v>117686.6308341682</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>38.22620227562618</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D2" t="n">
-        <v>399.8034794550264</v>
-      </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>211.145536662739</v>
+        <v>96.13128381829156</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>286.9523711746147</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>185.608387537637</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>223.1369608195782</v>
       </c>
       <c r="X7" t="n">
-        <v>19.8961825697894</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>192.1495349560566</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>71.33151095294932</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,13 +27904,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>175.9682474305289</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>213.7078720477536</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-7.011112757027149e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.220530961226252e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
     </row>
     <row r="42">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803699</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.4781821385493</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>312.4013251831016</v>
+        <v>211.3803861435633</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866484</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>87.78575545745673</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>955.8742281294894</v>
+        <v>661.5502973433599</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>186.1450306293339</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,19 +36841,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955935</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080413</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908061</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
